--- a/validation_study_files/validation_study_pitch.xlsx
+++ b/validation_study_files/validation_study_pitch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TAMU Work\TAMU 2021 FALL\OCEN 485\validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jafri\Documents\GitHub\RAO-Research\validation_study_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FB7A0D9-B463-4CC6-85D3-87290BE6166C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEBD7AB-6EBD-40F5-B988-697227BA4369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{12409B75-DDE9-4E79-996F-CF0147769801}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12409B75-DDE9-4E79-996F-CF0147769801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,11 +101,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1911,21 +1911,21 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1948,21 +1948,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.30064478064815198</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="D3">
         <v>6.0734751110072399E-3</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>0.1</v>
       </c>
       <c r="F3">
@@ -1986,7 +1986,7 @@
         <v>1.6790067404185449E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.36392178347170101</v>
       </c>
@@ -1999,7 +1999,7 @@
       <c r="D4">
         <v>9.1741528394484705E-3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>0.222</v>
       </c>
       <c r="F4">
@@ -2010,7 +2010,7 @@
         <v>4.6582837735728664E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.41569387669096902</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="D5">
         <v>1.2487497078756699E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>0.34499999999999997</v>
       </c>
       <c r="F5">
@@ -2034,7 +2034,7 @@
         <v>1.0082767088771242E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.46746596991023598</v>
       </c>
@@ -2047,7 +2047,7 @@
       <c r="D6">
         <v>1.5360621640570201E-2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.46700000000000003</v>
       </c>
       <c r="F6">
@@ -2058,7 +2058,7 @@
         <v>1.7231635704940015E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.51923806312950405</v>
       </c>
@@ -2071,7 +2071,7 @@
       <c r="D7">
         <v>1.8371270546077699E-2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>0.59</v>
       </c>
       <c r="F7">
@@ -2082,7 +2082,7 @@
         <v>2.4176300798625452E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.57101015634877195</v>
       </c>
@@ -2095,7 +2095,7 @@
       <c r="D8">
         <v>2.1257458907844501E-2</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>0.71199999999999997</v>
       </c>
       <c r="F8">
@@ -2106,7 +2106,7 @@
         <v>2.8878217803498179E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.62853470437018</v>
       </c>
@@ -2119,7 +2119,7 @@
       <c r="D9">
         <v>2.4120355223182899E-2</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>0.83499999999999996</v>
       </c>
       <c r="F9">
@@ -2130,7 +2130,7 @@
         <v>2.5476571091361228E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.72057398120443295</v>
       </c>
@@ -2143,7 +2143,7 @@
       <c r="D10">
         <v>2.7139369011451201E-2</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>0.95699999999999996</v>
       </c>
       <c r="F10">
@@ -2154,7 +2154,7 @@
         <v>1.0398671683382215E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.80686080323654596</v>
       </c>
@@ -2167,7 +2167,7 @@
       <c r="D11">
         <v>3.00282308950689E-2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1.079</v>
       </c>
       <c r="F11">
@@ -2178,7 +2178,7 @@
         <v>3.3911747366249822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.84712798685153201</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="D12">
         <v>3.1951681337799499E-2</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1.202</v>
       </c>
       <c r="F12">
@@ -2202,7 +2202,7 @@
         <v>2.5167647813758233E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.87397277592818901</v>
       </c>
@@ -2215,7 +2215,7 @@
       <c r="D13">
         <v>2.82600607618602E-2</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1.3240000000000001</v>
       </c>
       <c r="F13">
@@ -2226,7 +2226,7 @@
         <v>7.5049157835756165E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.89314762526865898</v>
       </c>
@@ -2239,7 +2239,7 @@
       <c r="D14">
         <v>2.4572862299083301E-2</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>1.4470000000000001</v>
       </c>
       <c r="F14">
@@ -2250,7 +2250,7 @@
         <v>5.6199601914217411E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.91999241434531598</v>
       </c>
@@ -2263,7 +2263,7 @@
       <c r="D15">
         <v>2.11228967048375E-2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>1.569</v>
       </c>
       <c r="F15">
@@ -2274,7 +2274,7 @@
         <v>1.658062789394613E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.93916726368578496</v>
       </c>
@@ -2287,7 +2287,7 @@
       <c r="D16">
         <v>1.7158185323673698E-2</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>1.6919999999999999</v>
       </c>
       <c r="F16">
@@ -2298,7 +2298,7 @@
         <v>9.0757121103705133E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.97368199249862997</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="D17">
         <v>1.3575134377190899E-2</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>1.8140000000000001</v>
       </c>
       <c r="F17">
@@ -2322,7 +2322,7 @@
         <v>4.3633231299858241E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.00819672131147</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="D18">
         <v>1.01122146919062E-2</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>1.9359999999999999</v>
       </c>
       <c r="F18">
@@ -2346,7 +2346,7 @@
         <v>2.4434609527920612E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.0714737241350201</v>
       </c>
@@ -2359,7 +2359,7 @@
       <c r="D19">
         <v>6.3961205889226398E-3</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>2.0590000000000002</v>
       </c>
       <c r="F19">
@@ -2370,7 +2370,7 @@
         <v>6.9813170079773184E-6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1.1922752749799801</v>
       </c>
@@ -2383,7 +2383,7 @@
       <c r="D20">
         <v>3.2471371815844799E-3</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>2.181</v>
       </c>
       <c r="F20">
@@ -2394,14 +2394,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>1.1796198744152699</v>
       </c>
       <c r="D21">
         <v>1.8286515541014201E-3</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>2.3039999999999998</v>
       </c>
       <c r="F21">
@@ -2412,14 +2412,14 @@
         <v>5.2359877559829886E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>1.24979982300139</v>
       </c>
       <c r="D22">
         <v>1.2161720028043899E-3</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>2.4260000000000002</v>
       </c>
       <c r="F22">

--- a/validation_study_files/validation_study_pitch.xlsx
+++ b/validation_study_files/validation_study_pitch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jafri\Documents\GitHub\RAO-Research\validation_study_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEBD7AB-6EBD-40F5-B988-697227BA4369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD351FF6-F54E-4192-BA3B-5527E5B34854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{12409B75-DDE9-4E79-996F-CF0147769801}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12409B75-DDE9-4E79-996F-CF0147769801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -359,7 +359,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Seung et al (Strip Theory)</c:v>
+            <c:v>Lee et al (Strip Theory)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -522,7 +522,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Me (ANSYS)</c:v>
+            <c:v>Present Study (ANSYS)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/validation_study_files/validation_study_pitch.xlsx
+++ b/validation_study_files/validation_study_pitch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jafri\Documents\GitHub\RAO-Research\validation_study_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD351FF6-F54E-4192-BA3B-5527E5B34854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1CC5CC-4937-4BAC-AA12-CEA9CA651865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12409B75-DDE9-4E79-996F-CF0147769801}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Seung_et_al</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Pitch RAO (rad/m)</t>
+  </si>
+  <si>
+    <t>Strip Theory Err</t>
+  </si>
+  <si>
+    <t>ANSYS Err</t>
   </si>
 </sst>
 </file>
@@ -366,6 +372,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -529,6 +536,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
+              <a:prstDash val="lgDashDot"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -1574,15 +1582,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>529590</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1908,10 +1916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B099556-9BBC-4418-9EB3-C6B240910963}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,11 +1929,13 @@
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1947,8 +1957,14 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1962,7 +1978,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.30064478064815198</v>
       </c>
@@ -1986,7 +2002,7 @@
         <v>1.6790067404185449E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.36392178347170101</v>
       </c>
@@ -2006,11 +2022,11 @@
         <v>0.26690000000000003</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G22" si="0">RADIANS(F4)</f>
+        <f>RADIANS(F4)</f>
         <v>4.6582837735728664E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.41569387669096902</v>
       </c>
@@ -2030,11 +2046,11 @@
         <v>0.57769999999999999</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F5)</f>
         <v>1.0082767088771242E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.46746596991023598</v>
       </c>
@@ -2054,11 +2070,11 @@
         <v>0.98729999999999996</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F6)</f>
         <v>1.7231635704940015E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.51923806312950405</v>
       </c>
@@ -2078,11 +2094,11 @@
         <v>1.3852</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F7)</f>
         <v>2.4176300798625452E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.57101015634877195</v>
       </c>
@@ -2102,11 +2118,11 @@
         <v>1.6546000000000001</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F8)</f>
         <v>2.8878217803498179E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.62853470437018</v>
       </c>
@@ -2126,11 +2142,11 @@
         <v>1.4597</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F9)</f>
         <v>2.5476571091361228E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.72057398120443295</v>
       </c>
@@ -2150,11 +2166,11 @@
         <v>0.5958</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F10)</f>
         <v>1.0398671683382215E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.80686080323654596</v>
       </c>
@@ -2174,11 +2190,11 @@
         <v>0.1943</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F11)</f>
         <v>3.3911747366249822E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.84712798685153201</v>
       </c>
@@ -2198,11 +2214,11 @@
         <v>0.14419999999999999</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F12)</f>
         <v>2.5167647813758233E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.87397277592818901</v>
       </c>
@@ -2222,11 +2238,11 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F13)</f>
         <v>7.5049157835756165E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.89314762526865898</v>
       </c>
@@ -2246,11 +2262,11 @@
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F14)</f>
         <v>5.6199601914217411E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.91999241434531598</v>
       </c>
@@ -2270,11 +2286,11 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F15)</f>
         <v>1.658062789394613E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.93916726368578496</v>
       </c>
@@ -2294,7 +2310,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F16)</f>
         <v>9.0757121103705133E-5</v>
       </c>
     </row>
@@ -2318,7 +2334,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F17)</f>
         <v>4.3633231299858241E-5</v>
       </c>
     </row>
@@ -2342,7 +2358,7 @@
         <v>1.4E-3</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F18)</f>
         <v>2.4434609527920612E-5</v>
       </c>
     </row>
@@ -2366,7 +2382,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F19)</f>
         <v>6.9813170079773184E-6</v>
       </c>
     </row>
@@ -2390,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F20)</f>
         <v>0</v>
       </c>
     </row>
@@ -2408,7 +2424,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F21)</f>
         <v>5.2359877559829886E-6</v>
       </c>
     </row>
@@ -2426,7 +2442,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
+        <f>RADIANS(F22)</f>
         <v>3.4906585039886592E-6</v>
       </c>
     </row>

--- a/validation_study_files/validation_study_pitch.xlsx
+++ b/validation_study_files/validation_study_pitch.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jafri\Documents\GitHub\RAO-Research\validation_study_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1CC5CC-4937-4BAC-AA12-CEA9CA651865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC686B6B-4C96-4B46-B6EB-6F1CCACD1C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{12409B75-DDE9-4E79-996F-CF0147769801}"/>
+    <workbookView xWindow="7290" yWindow="4905" windowWidth="21600" windowHeight="11295" xr2:uid="{12409B75-DDE9-4E79-996F-CF0147769801}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,161 +211,10 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Patel (ANSYS)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>0.30064478064815198</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36392178347170101</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41569387669096902</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.46746596991023598</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51923806312950405</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.57101015634877195</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.62853470437018</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.72057398120443295</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.80686080323654596</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.84712798685153201</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.87397277592818901</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.89314762526865898</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.91999241434531598</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.93916726368578496</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.97368199249862997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.00819672131147</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.0714737241350201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.1922752749799801</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>7.2771675625146002E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0582005141388099E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.35933629352652E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6770600607618601E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0005258237905998E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.3061275999065201E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.6302313624678601E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.9717351122819601E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8886211731713001E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5630287450338799E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.20298434213601E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.87824258004206E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4954428604814199E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.17218976396354E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.7711614863285802E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.7039027810236002E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.5772376723533501E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.8541715354054599E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-20D2-41BC-A4CC-D3FF8B7297D0}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Lee et al (Strip Theory)</c:v>
+            <c:v>Lee, Kim and Goo (2012) (Strip Theory)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -527,7 +376,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Present Study (ANSYS)</c:v>
           </c:tx>
@@ -1582,16 +1431,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>224790</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158115</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>529590</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>224790</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1918,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B099556-9BBC-4418-9EB3-C6B240910963}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1998,7 +1847,7 @@
         <v>9.6199999999999994E-2</v>
       </c>
       <c r="G3">
-        <f>RADIANS(F3)</f>
+        <f t="shared" ref="G3:G22" si="0">RADIANS(F3)</f>
         <v>1.6790067404185449E-3</v>
       </c>
     </row>
@@ -2022,7 +1871,7 @@
         <v>0.26690000000000003</v>
       </c>
       <c r="G4">
-        <f>RADIANS(F4)</f>
+        <f t="shared" si="0"/>
         <v>4.6582837735728664E-3</v>
       </c>
     </row>
@@ -2046,7 +1895,7 @@
         <v>0.57769999999999999</v>
       </c>
       <c r="G5">
-        <f>RADIANS(F5)</f>
+        <f t="shared" si="0"/>
         <v>1.0082767088771242E-2</v>
       </c>
     </row>
@@ -2070,7 +1919,7 @@
         <v>0.98729999999999996</v>
       </c>
       <c r="G6">
-        <f>RADIANS(F6)</f>
+        <f t="shared" si="0"/>
         <v>1.7231635704940015E-2</v>
       </c>
     </row>
@@ -2094,7 +1943,7 @@
         <v>1.3852</v>
       </c>
       <c r="G7">
-        <f>RADIANS(F7)</f>
+        <f t="shared" si="0"/>
         <v>2.4176300798625452E-2</v>
       </c>
     </row>
@@ -2118,7 +1967,7 @@
         <v>1.6546000000000001</v>
       </c>
       <c r="G8">
-        <f>RADIANS(F8)</f>
+        <f t="shared" si="0"/>
         <v>2.8878217803498179E-2</v>
       </c>
     </row>
@@ -2142,7 +1991,7 @@
         <v>1.4597</v>
       </c>
       <c r="G9">
-        <f>RADIANS(F9)</f>
+        <f t="shared" si="0"/>
         <v>2.5476571091361228E-2</v>
       </c>
     </row>
@@ -2166,7 +2015,7 @@
         <v>0.5958</v>
       </c>
       <c r="G10">
-        <f>RADIANS(F10)</f>
+        <f t="shared" si="0"/>
         <v>1.0398671683382215E-2</v>
       </c>
     </row>
@@ -2190,7 +2039,7 @@
         <v>0.1943</v>
       </c>
       <c r="G11">
-        <f>RADIANS(F11)</f>
+        <f t="shared" si="0"/>
         <v>3.3911747366249822E-3</v>
       </c>
     </row>
@@ -2214,7 +2063,7 @@
         <v>0.14419999999999999</v>
       </c>
       <c r="G12">
-        <f>RADIANS(F12)</f>
+        <f t="shared" si="0"/>
         <v>2.5167647813758233E-3</v>
       </c>
     </row>
@@ -2238,7 +2087,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="G13">
-        <f>RADIANS(F13)</f>
+        <f t="shared" si="0"/>
         <v>7.5049157835756165E-4</v>
       </c>
     </row>
@@ -2262,7 +2111,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="G14">
-        <f>RADIANS(F14)</f>
+        <f t="shared" si="0"/>
         <v>5.6199601914217411E-4</v>
       </c>
     </row>
@@ -2286,7 +2135,7 @@
         <v>9.4999999999999998E-3</v>
       </c>
       <c r="G15">
-        <f>RADIANS(F15)</f>
+        <f t="shared" si="0"/>
         <v>1.658062789394613E-4</v>
       </c>
     </row>
@@ -2310,7 +2159,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
       <c r="G16">
-        <f>RADIANS(F16)</f>
+        <f t="shared" si="0"/>
         <v>9.0757121103705133E-5</v>
       </c>
     </row>
@@ -2334,7 +2183,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="G17">
-        <f>RADIANS(F17)</f>
+        <f t="shared" si="0"/>
         <v>4.3633231299858241E-5</v>
       </c>
     </row>
@@ -2358,7 +2207,7 @@
         <v>1.4E-3</v>
       </c>
       <c r="G18">
-        <f>RADIANS(F18)</f>
+        <f t="shared" si="0"/>
         <v>2.4434609527920612E-5</v>
       </c>
     </row>
@@ -2382,7 +2231,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="G19">
-        <f>RADIANS(F19)</f>
+        <f t="shared" si="0"/>
         <v>6.9813170079773184E-6</v>
       </c>
     </row>
@@ -2406,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <f>RADIANS(F20)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2424,7 +2273,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="G21">
-        <f>RADIANS(F21)</f>
+        <f t="shared" si="0"/>
         <v>5.2359877559829886E-6</v>
       </c>
     </row>
@@ -2442,7 +2291,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="G22">
-        <f>RADIANS(F22)</f>
+        <f t="shared" si="0"/>
         <v>3.4906585039886592E-6</v>
       </c>
     </row>
